--- a/exampleProblems/ch9_016_test1/ch9_016.xlsx
+++ b/exampleProblems/ch9_016_test1/ch9_016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_016_test1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_5573853B0C84BB957DF9412134EB6A4605B0F9D5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DE29FA2-A6EE-4DCE-A080-85CE27664257}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_5573853B0C84BB957DF9412134EB6A4605B0F9D5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0445FF7-68CD-43D9-B5F3-B83478BA0DC4}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="23880" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="1650" windowWidth="23880" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -612,7 +612,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,9 +742,7 @@
       <c r="G5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3290,6 +3288,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3506,36 +3519,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3558,9 +3545,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>